--- a/mbs-perturbation/bloated/svm/bloated-svm-default-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8489383919248172</v>
+        <v>0.8506787330316743</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.9906021580229724</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6240573152337858</v>
+        <v>0.6825037707390649</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.6171328671328672</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.7678321678321678</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.2487179487179487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06486486486486487</v>
+        <v>0.1456582633053221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6704732673058464</v>
+        <v>0.7817499393517492</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/bloated-svm-default-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.1739130434782608</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8506787330316743</v>
+        <v>0.7514510779436153</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1428571428571429</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9906021580229724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6825037707390649</v>
+        <v>0.5481682496607869</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6171328671328672</v>
+        <v>0.6558118498417006</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7678321678321678</v>
+        <v>0.92625</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6171428571428571</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2487179487179487</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1456582633053221</v>
+        <v>0.2963210702341137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7817499393517492</v>
+        <v>0.7763362354892205</v>
       </c>
     </row>
   </sheetData>
